--- a/语法高亮.xlsx
+++ b/语法高亮.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\s0521_git\nonmem_cn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821ED333-28B2-4117-8E3B-160024898E5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826B11DA-F634-4440-A0BF-A640BFD99407}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="2415" windowWidth="20790" windowHeight="12630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3765" yWindow="315" windowWidth="20790" windowHeight="12630" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Highlight-高亮" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2341" uniqueCount="409">
   <si>
     <t>值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -927,10 +927,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ELSE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1036,21 +1032,9 @@
     <t>NOPRINT</t>
   </si>
   <si>
-    <t>EXP</t>
-  </si>
-  <si>
-    <t>COS</t>
-  </si>
-  <si>
-    <t>SIN</t>
-  </si>
-  <si>
     <t>DADT</t>
   </si>
   <si>
-    <t>LOG</t>
-  </si>
-  <si>
     <t>IPRED</t>
   </si>
   <si>
@@ -1456,11 +1440,98 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>INTERACTION|INTER|NOABORT|NOAPPEND|FILE|FIRSTONLY|ONEHEADER|NOPRINT|FIX|FIXED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INTERACTION INTER NOABORT NOAPPEND FILE FIRSTONLY ONEHEADER NOPRINT FIX FIXED</t>
+    <t>INTERACTION INTER NOABORT NOAPPEND FILE FIRSTONLY ONEHEADER NOPRINT FIX FIXED IGNORE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTERACTION|INTER|NOABORT|NOAPPEND|FILE|FIRSTONLY|ONEHEADER|NOPRINT|FIX|FIXED|IGNORE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IGNORE</t>
+  </si>
+  <si>
+    <t>THETA()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义一个固定效应变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IGNORE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETA()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义一个个体间变异随机变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THETA($1)$2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETA($1)$2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义用于筛选过滤的符号，行首为该符号的行被“剔除”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOG($1)$2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOG()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP($1)$2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COS($1)$2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIN($1)$2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIN()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COS()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERR()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERR($1)$2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义一个个体内变异随机变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF($1)$2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1802,8 +1873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1818,22 +1889,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1841,7 +1912,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
@@ -1858,7 +1929,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C3" t="s">
         <v>37</v>
@@ -1926,7 +1997,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C7" t="s">
         <v>37</v>
@@ -1966,10 +2037,10 @@
         <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F9" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -2017,7 +2088,7 @@
         <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F12" t="s">
         <v>47</v>
@@ -2040,7 +2111,7 @@
         <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -2054,10 +2125,10 @@
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F14" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -2077,7 +2148,7 @@
         <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="3:3" ht="15" x14ac:dyDescent="0.2">
@@ -2091,10 +2162,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462C55DB-F358-4A5D-A75B-9313D984AF51}">
-  <dimension ref="A1:AB111"/>
+  <dimension ref="A1:AB115"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="A8:F9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2127,10 +2199,10 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C1" t="s">
         <v>132</v>
@@ -2139,27 +2211,27 @@
         <v>133</v>
       </c>
       <c r="E1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="G1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C2" t="s">
         <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E2" t="s">
         <v>50</v>
@@ -2173,7 +2245,7 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B3" t="s">
         <v>54</v>
@@ -2182,30 +2254,30 @@
         <v>174</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>175</v>
       </c>
       <c r="F3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="G3" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B4" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C4" t="s">
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E4" t="s">
         <v>51</v>
@@ -2251,7 +2323,7 @@
         <v>174</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>175</v>
@@ -2284,7 +2356,7 @@
         <v>131</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
@@ -3726,10 +3798,10 @@
         <v>Clearance parameterization-1cmp</v>
       </c>
       <c r="F23" t="s">
+        <v>261</v>
+      </c>
+      <c r="G23" t="s">
         <v>262</v>
-      </c>
-      <c r="G23" t="s">
-        <v>263</v>
       </c>
       <c r="H23" t="s">
         <v>121</v>
@@ -4164,7 +4236,7 @@
         <v>135</v>
       </c>
       <c r="D28" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="E28" t="s">
         <v>144</v>
@@ -4252,7 +4324,7 @@
         <v>136</v>
       </c>
       <c r="D29" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E29" t="s">
         <v>153</v>
@@ -4340,7 +4412,7 @@
         <v>137</v>
       </c>
       <c r="D30" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="E30" t="s">
         <v>149</v>
@@ -4428,7 +4500,7 @@
         <v>138</v>
       </c>
       <c r="D31" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="E31" t="s">
         <v>151</v>
@@ -4516,7 +4588,7 @@
         <v>139</v>
       </c>
       <c r="D32" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E32" t="s">
         <v>155</v>
@@ -4604,7 +4676,7 @@
         <v>140</v>
       </c>
       <c r="D33" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E33" t="s">
         <v>172</v>
@@ -4692,7 +4764,7 @@
         <v>141</v>
       </c>
       <c r="D34" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="E34" t="s">
         <v>158</v>
@@ -4780,7 +4852,7 @@
         <v>142</v>
       </c>
       <c r="D35" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E35" t="s">
         <v>159</v>
@@ -4868,7 +4940,7 @@
         <v>143</v>
       </c>
       <c r="D36" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E36" t="s">
         <v>160</v>
@@ -4956,10 +5028,10 @@
         <v>166</v>
       </c>
       <c r="D37" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E37" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F37" t="s">
         <v>168</v>
@@ -5044,7 +5116,7 @@
         <v>167</v>
       </c>
       <c r="D38" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E38" t="s">
         <v>173</v>
@@ -5132,7 +5204,7 @@
         <v>176</v>
       </c>
       <c r="D39" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="E39" t="s">
         <v>177</v>
@@ -5220,7 +5292,7 @@
         <v>208</v>
       </c>
       <c r="D40" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E40" t="s">
         <v>209</v>
@@ -5308,16 +5380,16 @@
         <v>179</v>
       </c>
       <c r="D41" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E41" t="s">
         <v>180</v>
       </c>
       <c r="F41" t="s">
+        <v>250</v>
+      </c>
+      <c r="G41" t="s">
         <v>251</v>
-      </c>
-      <c r="G41" t="s">
-        <v>252</v>
       </c>
       <c r="H41" t="s">
         <v>121</v>
@@ -5657,10 +5729,10 @@
         <v>39</v>
       </c>
       <c r="C45" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D45" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E45" t="s">
         <v>200</v>
@@ -5745,10 +5817,10 @@
         <v>40</v>
       </c>
       <c r="C46" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D46" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E46" t="s">
         <v>201</v>
@@ -5833,10 +5905,10 @@
         <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D47" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E47" t="s">
         <v>202</v>
@@ -5921,10 +5993,10 @@
         <v>42</v>
       </c>
       <c r="C48" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D48" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E48" t="s">
         <v>203</v>
@@ -6009,10 +6081,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D49" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E49" t="s">
         <v>204</v>
@@ -6097,10 +6169,10 @@
         <v>44</v>
       </c>
       <c r="C50" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D50" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="E50" t="s">
         <v>205</v>
@@ -6185,10 +6257,10 @@
         <v>45</v>
       </c>
       <c r="C51" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D51" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E51" t="s">
         <v>206</v>
@@ -6813,7 +6885,7 @@
         <v>236</v>
       </c>
       <c r="G58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H58" t="s">
         <v>121</v>
@@ -6901,7 +6973,7 @@
         <v>237</v>
       </c>
       <c r="G59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H59" t="s">
         <v>121</v>
@@ -6977,26 +7049,26 @@
         <v>54</v>
       </c>
       <c r="C60" t="s">
-        <v>238</v>
+        <v>407</v>
       </c>
       <c r="D60" t="s">
-        <v>238</v>
+        <v>408</v>
       </c>
       <c r="E60" t="s">
-        <v>238</v>
+        <v>407</v>
       </c>
       <c r="F60" t="s">
-        <v>238</v>
+        <v>407</v>
       </c>
       <c r="G60" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H60" t="s">
         <v>121</v>
       </c>
       <c r="I60" t="str">
         <f t="shared" si="6"/>
-        <v>IF</v>
+        <v>IF()</v>
       </c>
       <c r="J60" t="s">
         <v>121</v>
@@ -7018,7 +7090,7 @@
       </c>
       <c r="P60" t="str">
         <f t="shared" si="9"/>
-        <v>IF</v>
+        <v>IF()</v>
       </c>
       <c r="Q60" t="s">
         <v>123</v>
@@ -7031,7 +7103,7 @@
       </c>
       <c r="T60" t="str">
         <f t="shared" si="10"/>
-        <v>IF</v>
+        <v>IF($1)$2</v>
       </c>
       <c r="U60" t="s">
         <v>123</v>
@@ -7044,7 +7116,7 @@
       </c>
       <c r="X60" t="str">
         <f t="shared" si="7"/>
-        <v>IF;逻辑运算符：如果</v>
+        <v>IF();逻辑运算符：如果</v>
       </c>
       <c r="Y60" t="s">
         <v>121</v>
@@ -7057,7 +7129,7 @@
       </c>
       <c r="AB60" t="str">
         <f t="shared" si="8"/>
-        <v>"IF":{"prefix":"IF","body":"IF","description":"IF;逻辑运算符：如果"},</v>
+        <v>"IF()":{"prefix":"IF()","body":"IF($1)$2","description":"IF();逻辑运算符：如果"},</v>
       </c>
     </row>
     <row r="61" spans="2:28" x14ac:dyDescent="0.2">
@@ -7065,19 +7137,19 @@
         <v>55</v>
       </c>
       <c r="C61" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D61" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E61" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F61" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G61" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H61" t="s">
         <v>121</v>
@@ -7153,19 +7225,19 @@
         <v>56</v>
       </c>
       <c r="C62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G62" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H62" t="s">
         <v>121</v>
@@ -7241,19 +7313,19 @@
         <v>57</v>
       </c>
       <c r="C63" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D63" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E63" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F63" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G63" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H63" t="s">
         <v>121</v>
@@ -7329,19 +7401,19 @@
         <v>58</v>
       </c>
       <c r="C64" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D64" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E64" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F64" t="s">
+        <v>247</v>
+      </c>
+      <c r="G64" t="s">
         <v>248</v>
-      </c>
-      <c r="G64" t="s">
-        <v>249</v>
       </c>
       <c r="H64" t="s">
         <v>121</v>
@@ -7417,19 +7489,19 @@
         <v>59</v>
       </c>
       <c r="C65" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D65" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="E65" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H65" t="s">
         <v>121</v>
@@ -7505,19 +7577,19 @@
         <v>60</v>
       </c>
       <c r="C66" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D66" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E66" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F66" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G66" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H66" t="s">
         <v>121</v>
@@ -7593,19 +7665,19 @@
         <v>61</v>
       </c>
       <c r="C67" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D67" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E67" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F67" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G67" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H67" t="s">
         <v>121</v>
@@ -7681,13 +7753,13 @@
         <v>62</v>
       </c>
       <c r="C68" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D68" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E68" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H68" t="s">
         <v>121</v>
@@ -7763,16 +7835,16 @@
         <v>63</v>
       </c>
       <c r="C69" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D69" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E69" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G69" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="H69" t="s">
         <v>121</v>
@@ -7848,16 +7920,16 @@
         <v>64</v>
       </c>
       <c r="C70" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D70" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E70" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G70" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H70" t="s">
         <v>121</v>
@@ -7933,16 +8005,16 @@
         <v>65</v>
       </c>
       <c r="C71" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D71" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E71" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G71" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H71" t="s">
         <v>121</v>
@@ -8018,16 +8090,16 @@
         <v>66</v>
       </c>
       <c r="C72" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D72" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E72" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G72" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H72" t="s">
         <v>121</v>
@@ -8103,16 +8175,16 @@
         <v>67</v>
       </c>
       <c r="C73" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D73" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E73" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G73" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H73" t="s">
         <v>121</v>
@@ -8188,23 +8260,23 @@
         <v>68</v>
       </c>
       <c r="C74" t="s">
-        <v>270</v>
+        <v>403</v>
       </c>
       <c r="D74" t="s">
-        <v>270</v>
+        <v>398</v>
       </c>
       <c r="E74" t="s">
-        <v>270</v>
+        <v>403</v>
       </c>
       <c r="G74" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="H74" t="s">
         <v>121</v>
       </c>
       <c r="I74" t="str">
         <f t="shared" si="11"/>
-        <v>EXP</v>
+        <v>EXP()</v>
       </c>
       <c r="J74" t="s">
         <v>121</v>
@@ -8226,7 +8298,7 @@
       </c>
       <c r="P74" t="str">
         <f t="shared" si="14"/>
-        <v>EXP</v>
+        <v>EXP()</v>
       </c>
       <c r="Q74" t="s">
         <v>123</v>
@@ -8239,7 +8311,7 @@
       </c>
       <c r="T74" t="str">
         <f t="shared" si="15"/>
-        <v>EXP</v>
+        <v>EXP($1)$2</v>
       </c>
       <c r="U74" t="s">
         <v>123</v>
@@ -8265,7 +8337,7 @@
       </c>
       <c r="AB74" t="str">
         <f t="shared" si="13"/>
-        <v>"EXP":{"prefix":"EXP","body":"EXP","description":";以自然常数e为底的指数函数"},</v>
+        <v>"EXP()":{"prefix":"EXP()","body":"EXP($1)$2","description":";以自然常数e为底的指数函数"},</v>
       </c>
     </row>
     <row r="75" spans="2:28" x14ac:dyDescent="0.2">
@@ -8273,23 +8345,23 @@
         <v>69</v>
       </c>
       <c r="C75" t="s">
-        <v>271</v>
+        <v>402</v>
       </c>
       <c r="D75" t="s">
-        <v>271</v>
+        <v>399</v>
       </c>
       <c r="E75" t="s">
-        <v>271</v>
+        <v>402</v>
       </c>
       <c r="G75" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H75" t="s">
         <v>121</v>
       </c>
       <c r="I75" t="str">
         <f t="shared" si="11"/>
-        <v>COS</v>
+        <v>COS()</v>
       </c>
       <c r="J75" t="s">
         <v>121</v>
@@ -8311,7 +8383,7 @@
       </c>
       <c r="P75" t="str">
         <f t="shared" si="14"/>
-        <v>COS</v>
+        <v>COS()</v>
       </c>
       <c r="Q75" t="s">
         <v>123</v>
@@ -8324,7 +8396,7 @@
       </c>
       <c r="T75" t="str">
         <f t="shared" si="15"/>
-        <v>COS</v>
+        <v>COS($1)$2</v>
       </c>
       <c r="U75" t="s">
         <v>123</v>
@@ -8350,7 +8422,7 @@
       </c>
       <c r="AB75" t="str">
         <f t="shared" si="13"/>
-        <v>"COS":{"prefix":"COS","body":"COS","description":";余弦三角函数"},</v>
+        <v>"COS()":{"prefix":"COS()","body":"COS($1)$2","description":";余弦三角函数"},</v>
       </c>
     </row>
     <row r="76" spans="2:28" x14ac:dyDescent="0.2">
@@ -8358,23 +8430,23 @@
         <v>70</v>
       </c>
       <c r="C76" t="s">
-        <v>272</v>
+        <v>401</v>
       </c>
       <c r="D76" t="s">
-        <v>272</v>
+        <v>400</v>
       </c>
       <c r="E76" t="s">
-        <v>272</v>
+        <v>401</v>
       </c>
       <c r="G76" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H76" t="s">
         <v>121</v>
       </c>
       <c r="I76" t="str">
         <f t="shared" si="11"/>
-        <v>SIN</v>
+        <v>SIN()</v>
       </c>
       <c r="J76" t="s">
         <v>121</v>
@@ -8396,7 +8468,7 @@
       </c>
       <c r="P76" t="str">
         <f t="shared" si="14"/>
-        <v>SIN</v>
+        <v>SIN()</v>
       </c>
       <c r="Q76" t="s">
         <v>123</v>
@@ -8409,7 +8481,7 @@
       </c>
       <c r="T76" t="str">
         <f t="shared" si="15"/>
-        <v>SIN</v>
+        <v>SIN($1)$2</v>
       </c>
       <c r="U76" t="s">
         <v>123</v>
@@ -8435,7 +8507,7 @@
       </c>
       <c r="AB76" t="str">
         <f t="shared" si="13"/>
-        <v>"SIN":{"prefix":"SIN","body":"SIN","description":";正弦三角函数"},</v>
+        <v>"SIN()":{"prefix":"SIN()","body":"SIN($1)$2","description":";正弦三角函数"},</v>
       </c>
     </row>
     <row r="77" spans="2:28" x14ac:dyDescent="0.2">
@@ -8443,13 +8515,13 @@
         <v>71</v>
       </c>
       <c r="C77" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D77" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E77" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H77" t="s">
         <v>121</v>
@@ -8525,20 +8597,20 @@
         <v>72</v>
       </c>
       <c r="C78" t="s">
-        <v>274</v>
+        <v>397</v>
       </c>
       <c r="D78" t="s">
-        <v>274</v>
+        <v>396</v>
       </c>
       <c r="E78" t="s">
-        <v>274</v>
+        <v>397</v>
       </c>
       <c r="H78" t="s">
         <v>121</v>
       </c>
       <c r="I78" t="str">
         <f t="shared" si="11"/>
-        <v>LOG</v>
+        <v>LOG()</v>
       </c>
       <c r="J78" t="s">
         <v>121</v>
@@ -8560,7 +8632,7 @@
       </c>
       <c r="P78" t="str">
         <f t="shared" si="14"/>
-        <v>LOG</v>
+        <v>LOG()</v>
       </c>
       <c r="Q78" t="s">
         <v>123</v>
@@ -8573,7 +8645,7 @@
       </c>
       <c r="T78" t="str">
         <f t="shared" si="15"/>
-        <v>LOG</v>
+        <v>LOG($1)$2</v>
       </c>
       <c r="U78" t="s">
         <v>123</v>
@@ -8599,7 +8671,7 @@
       </c>
       <c r="AB78" t="str">
         <f t="shared" si="13"/>
-        <v>"LOG":{"prefix":"LOG","body":"LOG","description":";"},</v>
+        <v>"LOG()":{"prefix":"LOG()","body":"LOG($1)$2","description":";"},</v>
       </c>
     </row>
     <row r="79" spans="2:28" x14ac:dyDescent="0.2">
@@ -8607,16 +8679,16 @@
         <v>73</v>
       </c>
       <c r="C79" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D79" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E79" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G79" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H79" t="s">
         <v>121</v>
@@ -8692,16 +8764,16 @@
         <v>74</v>
       </c>
       <c r="C80" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D80" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E80" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G80" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H80" t="s">
         <v>121</v>
@@ -8777,16 +8849,16 @@
         <v>75</v>
       </c>
       <c r="C81" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D81" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E81" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G81" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H81" t="s">
         <v>121</v>
@@ -8862,16 +8934,16 @@
         <v>76</v>
       </c>
       <c r="C82" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D82" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E82" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G82" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H82" t="s">
         <v>121</v>
@@ -8947,16 +9019,16 @@
         <v>77</v>
       </c>
       <c r="C83" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D83" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E83" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G83" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H83" t="s">
         <v>121</v>
@@ -9032,16 +9104,16 @@
         <v>78</v>
       </c>
       <c r="C84" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D84" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E84" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G84" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="H84" t="s">
         <v>121</v>
@@ -9117,16 +9189,16 @@
         <v>79</v>
       </c>
       <c r="C85" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D85" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E85" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G85" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H85" t="s">
         <v>121</v>
@@ -9202,13 +9274,13 @@
         <v>80</v>
       </c>
       <c r="C86" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D86" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E86" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H86" t="s">
         <v>121</v>
@@ -9284,13 +9356,13 @@
         <v>81</v>
       </c>
       <c r="C87" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D87" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E87" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="H87" t="s">
         <v>121</v>
@@ -9366,16 +9438,16 @@
         <v>82</v>
       </c>
       <c r="C88" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D88" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E88" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G88" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H88" t="s">
         <v>121</v>
@@ -9451,16 +9523,16 @@
         <v>83</v>
       </c>
       <c r="C89" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D89" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E89" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G89" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H89" t="s">
         <v>121</v>
@@ -9536,16 +9608,16 @@
         <v>84</v>
       </c>
       <c r="C90" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D90" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E90" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G90" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H90" t="s">
         <v>121</v>
@@ -9621,16 +9693,16 @@
         <v>85</v>
       </c>
       <c r="C91" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D91" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E91" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G91" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H91" t="s">
         <v>121</v>
@@ -9706,16 +9778,16 @@
         <v>86</v>
       </c>
       <c r="C92" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D92" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E92" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G92" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H92" t="s">
         <v>121</v>
@@ -9791,16 +9863,16 @@
         <v>87</v>
       </c>
       <c r="C93" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D93" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E93" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G93" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H93" t="s">
         <v>121</v>
@@ -9876,16 +9948,16 @@
         <v>88</v>
       </c>
       <c r="C94" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D94" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E94" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G94" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H94" t="s">
         <v>121</v>
@@ -9961,13 +10033,13 @@
         <v>89</v>
       </c>
       <c r="C95" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D95" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E95" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="H95" t="s">
         <v>121</v>
@@ -10043,16 +10115,16 @@
         <v>90</v>
       </c>
       <c r="C96" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D96" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E96" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G96" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H96" t="s">
         <v>121</v>
@@ -10128,13 +10200,13 @@
         <v>91</v>
       </c>
       <c r="C97" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D97" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E97" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H97" t="s">
         <v>121</v>
@@ -10210,13 +10282,13 @@
         <v>92</v>
       </c>
       <c r="C98" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D98" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E98" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H98" t="s">
         <v>121</v>
@@ -10292,16 +10364,16 @@
         <v>93</v>
       </c>
       <c r="C99" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D99" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E99" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G99" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H99" t="s">
         <v>121</v>
@@ -10377,16 +10449,16 @@
         <v>94</v>
       </c>
       <c r="C100" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D100" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E100" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G100" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H100" t="s">
         <v>121</v>
@@ -10462,16 +10534,16 @@
         <v>95</v>
       </c>
       <c r="C101" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D101" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E101" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G101" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H101" t="s">
         <v>121</v>
@@ -10547,16 +10619,16 @@
         <v>96</v>
       </c>
       <c r="C102" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D102" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E102" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G102" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H102" t="s">
         <v>121</v>
@@ -10632,16 +10704,16 @@
         <v>97</v>
       </c>
       <c r="C103" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D103" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E103" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G103" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H103" t="s">
         <v>121</v>
@@ -10717,13 +10789,13 @@
         <v>98</v>
       </c>
       <c r="C104" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D104" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E104" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="H104" t="s">
         <v>121</v>
@@ -10799,13 +10871,13 @@
         <v>99</v>
       </c>
       <c r="C105" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D105" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E105" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H105" t="s">
         <v>121</v>
@@ -10881,16 +10953,16 @@
         <v>100</v>
       </c>
       <c r="C106" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D106" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E106" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G106" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H106" t="s">
         <v>121</v>
@@ -10966,13 +11038,13 @@
         <v>101</v>
       </c>
       <c r="C107" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D107" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E107" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H107" t="s">
         <v>121</v>
@@ -11048,13 +11120,13 @@
         <v>102</v>
       </c>
       <c r="C108" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D108" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E108" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H108" t="s">
         <v>121</v>
@@ -11130,16 +11202,16 @@
         <v>103</v>
       </c>
       <c r="C109" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D109" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E109" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G109" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H109" t="s">
         <v>121</v>
@@ -11215,16 +11287,16 @@
         <v>104</v>
       </c>
       <c r="C110" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D110" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E110" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G110" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H110" t="s">
         <v>121</v>
@@ -11278,7 +11350,7 @@
         <v>124</v>
       </c>
       <c r="X110" t="str">
-        <f t="shared" ref="X110:X111" si="19">F110&amp;";"&amp;G110</f>
+        <f t="shared" ref="X110:X112" si="19">F110&amp;";"&amp;G110</f>
         <v>;将此参数的值固定为初始值</v>
       </c>
       <c r="Y110" t="s">
@@ -11300,19 +11372,19 @@
         <v>105</v>
       </c>
       <c r="C111" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D111" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E111" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F111" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G111" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H111" t="s">
         <v>121</v>
@@ -11381,6 +11453,358 @@
       <c r="AB111" t="str">
         <f t="shared" si="20"/>
         <v>"Specify ADVAN and TRANS in this statement":{"prefix":"$SUBROUTINES","body":"\\$SUBROUTINES","description":"Specify ADVAN and TRANS in this statement;在此语句中指定ADVAN和TRANS"},</v>
+      </c>
+    </row>
+    <row r="112" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B112">
+        <v>106</v>
+      </c>
+      <c r="C112" t="s">
+        <v>390</v>
+      </c>
+      <c r="D112" t="s">
+        <v>387</v>
+      </c>
+      <c r="E112" t="s">
+        <v>387</v>
+      </c>
+      <c r="F112" t="s">
+        <v>387</v>
+      </c>
+      <c r="G112" t="s">
+        <v>395</v>
+      </c>
+      <c r="H112" t="s">
+        <v>121</v>
+      </c>
+      <c r="I112" t="str">
+        <f t="shared" ref="I112:I114" si="21">E112</f>
+        <v>IGNORE</v>
+      </c>
+      <c r="J112" t="s">
+        <v>121</v>
+      </c>
+      <c r="K112" t="s">
+        <v>118</v>
+      </c>
+      <c r="L112" t="s">
+        <v>122</v>
+      </c>
+      <c r="M112" t="s">
+        <v>121</v>
+      </c>
+      <c r="N112" t="s">
+        <v>132</v>
+      </c>
+      <c r="O112" t="s">
+        <v>124</v>
+      </c>
+      <c r="P112" t="str">
+        <f t="shared" ref="P112:P114" si="22">C112</f>
+        <v>IGNORE</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>123</v>
+      </c>
+      <c r="R112" t="s">
+        <v>133</v>
+      </c>
+      <c r="S112" t="s">
+        <v>124</v>
+      </c>
+      <c r="T112" t="str">
+        <f t="shared" ref="T112:T114" si="23">D112</f>
+        <v>IGNORE</v>
+      </c>
+      <c r="U112" t="s">
+        <v>123</v>
+      </c>
+      <c r="V112" t="s">
+        <v>134</v>
+      </c>
+      <c r="W112" t="s">
+        <v>124</v>
+      </c>
+      <c r="X112" t="str">
+        <f t="shared" ref="X112:X114" si="24">F112&amp;";"&amp;G112</f>
+        <v>IGNORE;定义用于筛选过滤的符号，行首为该符号的行被“剔除”</v>
+      </c>
+      <c r="Y112" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z112" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA112" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB112" t="str">
+        <f t="shared" ref="AB112:AB115" si="25">_xlfn.CONCAT(H112:AA112)</f>
+        <v>"IGNORE":{"prefix":"IGNORE","body":"IGNORE","description":"IGNORE;定义用于筛选过滤的符号，行首为该符号的行被“剔除”"},</v>
+      </c>
+    </row>
+    <row r="113" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B113">
+        <v>107</v>
+      </c>
+      <c r="C113" t="s">
+        <v>388</v>
+      </c>
+      <c r="D113" t="s">
+        <v>393</v>
+      </c>
+      <c r="E113" t="s">
+        <v>388</v>
+      </c>
+      <c r="F113" t="s">
+        <v>388</v>
+      </c>
+      <c r="G113" t="s">
+        <v>389</v>
+      </c>
+      <c r="H113" t="s">
+        <v>121</v>
+      </c>
+      <c r="I113" t="str">
+        <f t="shared" si="21"/>
+        <v>THETA()</v>
+      </c>
+      <c r="J113" t="s">
+        <v>121</v>
+      </c>
+      <c r="K113" t="s">
+        <v>118</v>
+      </c>
+      <c r="L113" t="s">
+        <v>122</v>
+      </c>
+      <c r="M113" t="s">
+        <v>121</v>
+      </c>
+      <c r="N113" t="s">
+        <v>132</v>
+      </c>
+      <c r="O113" t="s">
+        <v>124</v>
+      </c>
+      <c r="P113" t="str">
+        <f t="shared" si="22"/>
+        <v>THETA()</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>123</v>
+      </c>
+      <c r="R113" t="s">
+        <v>133</v>
+      </c>
+      <c r="S113" t="s">
+        <v>124</v>
+      </c>
+      <c r="T113" t="str">
+        <f t="shared" si="23"/>
+        <v>THETA($1)$2</v>
+      </c>
+      <c r="U113" t="s">
+        <v>123</v>
+      </c>
+      <c r="V113" t="s">
+        <v>134</v>
+      </c>
+      <c r="W113" t="s">
+        <v>124</v>
+      </c>
+      <c r="X113" t="str">
+        <f t="shared" si="24"/>
+        <v>THETA();定义一个固定效应变量</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z113" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA113" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB113" t="str">
+        <f t="shared" si="25"/>
+        <v>"THETA()":{"prefix":"THETA()","body":"THETA($1)$2","description":"THETA();定义一个固定效应变量"},</v>
+      </c>
+    </row>
+    <row r="114" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B114">
+        <v>108</v>
+      </c>
+      <c r="C114" t="s">
+        <v>391</v>
+      </c>
+      <c r="D114" t="s">
+        <v>394</v>
+      </c>
+      <c r="E114" t="s">
+        <v>391</v>
+      </c>
+      <c r="F114" t="s">
+        <v>391</v>
+      </c>
+      <c r="G114" t="s">
+        <v>392</v>
+      </c>
+      <c r="H114" t="s">
+        <v>121</v>
+      </c>
+      <c r="I114" t="str">
+        <f t="shared" si="21"/>
+        <v>ETA()</v>
+      </c>
+      <c r="J114" t="s">
+        <v>121</v>
+      </c>
+      <c r="K114" t="s">
+        <v>118</v>
+      </c>
+      <c r="L114" t="s">
+        <v>122</v>
+      </c>
+      <c r="M114" t="s">
+        <v>121</v>
+      </c>
+      <c r="N114" t="s">
+        <v>132</v>
+      </c>
+      <c r="O114" t="s">
+        <v>124</v>
+      </c>
+      <c r="P114" t="str">
+        <f t="shared" si="22"/>
+        <v>ETA()</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>123</v>
+      </c>
+      <c r="R114" t="s">
+        <v>133</v>
+      </c>
+      <c r="S114" t="s">
+        <v>124</v>
+      </c>
+      <c r="T114" t="str">
+        <f t="shared" si="23"/>
+        <v>ETA($1)$2</v>
+      </c>
+      <c r="U114" t="s">
+        <v>123</v>
+      </c>
+      <c r="V114" t="s">
+        <v>134</v>
+      </c>
+      <c r="W114" t="s">
+        <v>124</v>
+      </c>
+      <c r="X114" t="str">
+        <f t="shared" si="24"/>
+        <v>ETA();定义一个个体间变异随机变量</v>
+      </c>
+      <c r="Y114" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z114" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA114" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB114" t="str">
+        <f t="shared" si="25"/>
+        <v>"ETA()":{"prefix":"ETA()","body":"ETA($1)$2","description":"ETA();定义一个个体间变异随机变量"},</v>
+      </c>
+    </row>
+    <row r="115" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B115">
+        <v>109</v>
+      </c>
+      <c r="C115" t="s">
+        <v>404</v>
+      </c>
+      <c r="D115" t="s">
+        <v>405</v>
+      </c>
+      <c r="E115" t="s">
+        <v>404</v>
+      </c>
+      <c r="F115" t="s">
+        <v>404</v>
+      </c>
+      <c r="G115" t="s">
+        <v>406</v>
+      </c>
+      <c r="H115" t="s">
+        <v>121</v>
+      </c>
+      <c r="I115" t="str">
+        <f t="shared" ref="I115" si="26">E115</f>
+        <v>ERR()</v>
+      </c>
+      <c r="J115" t="s">
+        <v>121</v>
+      </c>
+      <c r="K115" t="s">
+        <v>118</v>
+      </c>
+      <c r="L115" t="s">
+        <v>122</v>
+      </c>
+      <c r="M115" t="s">
+        <v>121</v>
+      </c>
+      <c r="N115" t="s">
+        <v>132</v>
+      </c>
+      <c r="O115" t="s">
+        <v>124</v>
+      </c>
+      <c r="P115" t="str">
+        <f t="shared" ref="P115" si="27">C115</f>
+        <v>ERR()</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>123</v>
+      </c>
+      <c r="R115" t="s">
+        <v>133</v>
+      </c>
+      <c r="S115" t="s">
+        <v>124</v>
+      </c>
+      <c r="T115" t="str">
+        <f t="shared" ref="T115" si="28">D115</f>
+        <v>ERR($1)$2</v>
+      </c>
+      <c r="U115" t="s">
+        <v>123</v>
+      </c>
+      <c r="V115" t="s">
+        <v>134</v>
+      </c>
+      <c r="W115" t="s">
+        <v>124</v>
+      </c>
+      <c r="X115" t="str">
+        <f t="shared" ref="X115" si="29">F115&amp;";"&amp;G115</f>
+        <v>ERR();定义一个个体内变异随机变量</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z115" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA115" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB115" t="str">
+        <f t="shared" si="25"/>
+        <v>"ERR()":{"prefix":"ERR()","body":"ERR($1)$2","description":"ERR();定义一个个体内变异随机变量"},</v>
       </c>
     </row>
   </sheetData>

--- a/语法高亮.xlsx
+++ b/语法高亮.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\s0521_git\nonmem_cn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826B11DA-F634-4440-A0BF-A640BFD99407}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821ED333-28B2-4117-8E3B-160024898E5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="315" windowWidth="20790" windowHeight="12630" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1305" yWindow="2415" windowWidth="20790" windowHeight="12630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Highlight-高亮" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2341" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="392">
   <si>
     <t>值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -927,6 +927,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>IF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ELSE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1032,9 +1036,21 @@
     <t>NOPRINT</t>
   </si>
   <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>COS</t>
+  </si>
+  <si>
+    <t>SIN</t>
+  </si>
+  <si>
     <t>DADT</t>
   </si>
   <si>
+    <t>LOG</t>
+  </si>
+  <si>
     <t>IPRED</t>
   </si>
   <si>
@@ -1440,98 +1456,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>INTERACTION INTER NOABORT NOAPPEND FILE FIRSTONLY ONEHEADER NOPRINT FIX FIXED IGNORE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INTERACTION|INTER|NOABORT|NOAPPEND|FILE|FIRSTONLY|ONEHEADER|NOPRINT|FIX|FIXED|IGNORE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IGNORE</t>
-  </si>
-  <si>
-    <t>THETA()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义一个固定效应变量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IGNORE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETA()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义一个个体间变异随机变量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>THETA($1)$2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETA($1)$2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义用于筛选过滤的符号，行首为该符号的行被“剔除”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOG($1)$2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOG()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXP($1)$2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COS($1)$2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SIN($1)$2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SIN()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COS()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXP()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERR()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERR($1)$2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义一个个体内变异随机变量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IF()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IF($1)$2</t>
+    <t>INTERACTION|INTER|NOABORT|NOAPPEND|FILE|FIRSTONLY|ONEHEADER|NOPRINT|FIX|FIXED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTERACTION INTER NOABORT NOAPPEND FILE FIRSTONLY ONEHEADER NOPRINT FIX FIXED</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1873,8 +1802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1889,22 +1818,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B1" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C1" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="D1" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1912,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
@@ -1929,7 +1858,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C3" t="s">
         <v>37</v>
@@ -1997,7 +1926,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C7" t="s">
         <v>37</v>
@@ -2037,10 +1966,10 @@
         <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="F9" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -2088,7 +2017,7 @@
         <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="F12" t="s">
         <v>47</v>
@@ -2111,7 +2040,7 @@
         <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -2125,10 +2054,10 @@
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="F14" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -2148,7 +2077,7 @@
         <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="21" spans="3:3" ht="15" x14ac:dyDescent="0.2">
@@ -2162,11 +2091,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462C55DB-F358-4A5D-A75B-9313D984AF51}">
-  <dimension ref="A1:AB115"/>
+  <dimension ref="A1:AB111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D113" sqref="D113"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="A8:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2199,10 +2127,10 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B1" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C1" t="s">
         <v>132</v>
@@ -2211,27 +2139,27 @@
         <v>133</v>
       </c>
       <c r="E1" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="F1" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="G1" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B2" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C2" t="s">
         <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="E2" t="s">
         <v>50</v>
@@ -2245,7 +2173,7 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s">
         <v>54</v>
@@ -2254,30 +2182,30 @@
         <v>174</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>175</v>
       </c>
       <c r="F3" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="G3" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B4" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C4" t="s">
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="E4" t="s">
         <v>51</v>
@@ -2323,7 +2251,7 @@
         <v>174</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>175</v>
@@ -2356,7 +2284,7 @@
         <v>131</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
@@ -3798,10 +3726,10 @@
         <v>Clearance parameterization-1cmp</v>
       </c>
       <c r="F23" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G23" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H23" t="s">
         <v>121</v>
@@ -4236,7 +4164,7 @@
         <v>135</v>
       </c>
       <c r="D28" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="E28" t="s">
         <v>144</v>
@@ -4324,7 +4252,7 @@
         <v>136</v>
       </c>
       <c r="D29" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="E29" t="s">
         <v>153</v>
@@ -4412,7 +4340,7 @@
         <v>137</v>
       </c>
       <c r="D30" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="E30" t="s">
         <v>149</v>
@@ -4500,7 +4428,7 @@
         <v>138</v>
       </c>
       <c r="D31" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E31" t="s">
         <v>151</v>
@@ -4588,7 +4516,7 @@
         <v>139</v>
       </c>
       <c r="D32" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="E32" t="s">
         <v>155</v>
@@ -4676,7 +4604,7 @@
         <v>140</v>
       </c>
       <c r="D33" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="E33" t="s">
         <v>172</v>
@@ -4764,7 +4692,7 @@
         <v>141</v>
       </c>
       <c r="D34" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="E34" t="s">
         <v>158</v>
@@ -4852,7 +4780,7 @@
         <v>142</v>
       </c>
       <c r="D35" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="E35" t="s">
         <v>159</v>
@@ -4940,7 +4868,7 @@
         <v>143</v>
       </c>
       <c r="D36" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="E36" t="s">
         <v>160</v>
@@ -5028,10 +4956,10 @@
         <v>166</v>
       </c>
       <c r="D37" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="E37" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="F37" t="s">
         <v>168</v>
@@ -5116,7 +5044,7 @@
         <v>167</v>
       </c>
       <c r="D38" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="E38" t="s">
         <v>173</v>
@@ -5204,7 +5132,7 @@
         <v>176</v>
       </c>
       <c r="D39" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="E39" t="s">
         <v>177</v>
@@ -5292,7 +5220,7 @@
         <v>208</v>
       </c>
       <c r="D40" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="E40" t="s">
         <v>209</v>
@@ -5380,16 +5308,16 @@
         <v>179</v>
       </c>
       <c r="D41" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="E41" t="s">
         <v>180</v>
       </c>
       <c r="F41" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G41" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H41" t="s">
         <v>121</v>
@@ -5729,10 +5657,10 @@
         <v>39</v>
       </c>
       <c r="C45" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="D45" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="E45" t="s">
         <v>200</v>
@@ -5817,10 +5745,10 @@
         <v>40</v>
       </c>
       <c r="C46" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="D46" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="E46" t="s">
         <v>201</v>
@@ -5905,10 +5833,10 @@
         <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="D47" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="E47" t="s">
         <v>202</v>
@@ -5993,10 +5921,10 @@
         <v>42</v>
       </c>
       <c r="C48" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="D48" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E48" t="s">
         <v>203</v>
@@ -6081,10 +6009,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="D49" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="E49" t="s">
         <v>204</v>
@@ -6169,10 +6097,10 @@
         <v>44</v>
       </c>
       <c r="C50" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="D50" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="E50" t="s">
         <v>205</v>
@@ -6257,10 +6185,10 @@
         <v>45</v>
       </c>
       <c r="C51" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="D51" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="E51" t="s">
         <v>206</v>
@@ -6885,7 +6813,7 @@
         <v>236</v>
       </c>
       <c r="G58" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H58" t="s">
         <v>121</v>
@@ -6973,7 +6901,7 @@
         <v>237</v>
       </c>
       <c r="G59" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H59" t="s">
         <v>121</v>
@@ -7049,26 +6977,26 @@
         <v>54</v>
       </c>
       <c r="C60" t="s">
-        <v>407</v>
+        <v>238</v>
       </c>
       <c r="D60" t="s">
-        <v>408</v>
+        <v>238</v>
       </c>
       <c r="E60" t="s">
-        <v>407</v>
+        <v>238</v>
       </c>
       <c r="F60" t="s">
-        <v>407</v>
+        <v>238</v>
       </c>
       <c r="G60" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H60" t="s">
         <v>121</v>
       </c>
       <c r="I60" t="str">
         <f t="shared" si="6"/>
-        <v>IF()</v>
+        <v>IF</v>
       </c>
       <c r="J60" t="s">
         <v>121</v>
@@ -7090,7 +7018,7 @@
       </c>
       <c r="P60" t="str">
         <f t="shared" si="9"/>
-        <v>IF()</v>
+        <v>IF</v>
       </c>
       <c r="Q60" t="s">
         <v>123</v>
@@ -7103,7 +7031,7 @@
       </c>
       <c r="T60" t="str">
         <f t="shared" si="10"/>
-        <v>IF($1)$2</v>
+        <v>IF</v>
       </c>
       <c r="U60" t="s">
         <v>123</v>
@@ -7116,7 +7044,7 @@
       </c>
       <c r="X60" t="str">
         <f t="shared" si="7"/>
-        <v>IF();逻辑运算符：如果</v>
+        <v>IF;逻辑运算符：如果</v>
       </c>
       <c r="Y60" t="s">
         <v>121</v>
@@ -7129,7 +7057,7 @@
       </c>
       <c r="AB60" t="str">
         <f t="shared" si="8"/>
-        <v>"IF()":{"prefix":"IF()","body":"IF($1)$2","description":"IF();逻辑运算符：如果"},</v>
+        <v>"IF":{"prefix":"IF","body":"IF","description":"IF;逻辑运算符：如果"},</v>
       </c>
     </row>
     <row r="61" spans="2:28" x14ac:dyDescent="0.2">
@@ -7137,19 +7065,19 @@
         <v>55</v>
       </c>
       <c r="C61" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D61" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E61" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F61" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G61" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H61" t="s">
         <v>121</v>
@@ -7225,19 +7153,19 @@
         <v>56</v>
       </c>
       <c r="C62" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D62" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E62" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F62" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G62" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H62" t="s">
         <v>121</v>
@@ -7313,19 +7241,19 @@
         <v>57</v>
       </c>
       <c r="C63" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D63" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E63" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F63" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G63" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H63" t="s">
         <v>121</v>
@@ -7401,19 +7329,19 @@
         <v>58</v>
       </c>
       <c r="C64" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="D64" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="E64" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F64" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G64" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H64" t="s">
         <v>121</v>
@@ -7489,19 +7417,19 @@
         <v>59</v>
       </c>
       <c r="C65" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D65" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="E65" t="s">
+        <v>255</v>
+      </c>
+      <c r="F65" t="s">
         <v>254</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>253</v>
-      </c>
-      <c r="G65" t="s">
-        <v>252</v>
       </c>
       <c r="H65" t="s">
         <v>121</v>
@@ -7577,19 +7505,19 @@
         <v>60</v>
       </c>
       <c r="C66" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D66" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E66" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F66" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G66" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H66" t="s">
         <v>121</v>
@@ -7665,19 +7593,19 @@
         <v>61</v>
       </c>
       <c r="C67" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D67" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E67" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F67" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G67" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H67" t="s">
         <v>121</v>
@@ -7753,13 +7681,13 @@
         <v>62</v>
       </c>
       <c r="C68" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D68" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E68" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H68" t="s">
         <v>121</v>
@@ -7835,16 +7763,16 @@
         <v>63</v>
       </c>
       <c r="C69" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D69" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E69" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G69" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="H69" t="s">
         <v>121</v>
@@ -7920,16 +7848,16 @@
         <v>64</v>
       </c>
       <c r="C70" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D70" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E70" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G70" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="H70" t="s">
         <v>121</v>
@@ -8005,16 +7933,16 @@
         <v>65</v>
       </c>
       <c r="C71" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D71" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E71" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G71" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="H71" t="s">
         <v>121</v>
@@ -8090,16 +8018,16 @@
         <v>66</v>
       </c>
       <c r="C72" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D72" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E72" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G72" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="H72" t="s">
         <v>121</v>
@@ -8175,16 +8103,16 @@
         <v>67</v>
       </c>
       <c r="C73" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D73" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E73" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G73" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="H73" t="s">
         <v>121</v>
@@ -8260,23 +8188,23 @@
         <v>68</v>
       </c>
       <c r="C74" t="s">
-        <v>403</v>
+        <v>270</v>
       </c>
       <c r="D74" t="s">
-        <v>398</v>
+        <v>270</v>
       </c>
       <c r="E74" t="s">
-        <v>403</v>
+        <v>270</v>
       </c>
       <c r="G74" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="H74" t="s">
         <v>121</v>
       </c>
       <c r="I74" t="str">
         <f t="shared" si="11"/>
-        <v>EXP()</v>
+        <v>EXP</v>
       </c>
       <c r="J74" t="s">
         <v>121</v>
@@ -8298,7 +8226,7 @@
       </c>
       <c r="P74" t="str">
         <f t="shared" si="14"/>
-        <v>EXP()</v>
+        <v>EXP</v>
       </c>
       <c r="Q74" t="s">
         <v>123</v>
@@ -8311,7 +8239,7 @@
       </c>
       <c r="T74" t="str">
         <f t="shared" si="15"/>
-        <v>EXP($1)$2</v>
+        <v>EXP</v>
       </c>
       <c r="U74" t="s">
         <v>123</v>
@@ -8337,7 +8265,7 @@
       </c>
       <c r="AB74" t="str">
         <f t="shared" si="13"/>
-        <v>"EXP()":{"prefix":"EXP()","body":"EXP($1)$2","description":";以自然常数e为底的指数函数"},</v>
+        <v>"EXP":{"prefix":"EXP","body":"EXP","description":";以自然常数e为底的指数函数"},</v>
       </c>
     </row>
     <row r="75" spans="2:28" x14ac:dyDescent="0.2">
@@ -8345,23 +8273,23 @@
         <v>69</v>
       </c>
       <c r="C75" t="s">
-        <v>402</v>
+        <v>271</v>
       </c>
       <c r="D75" t="s">
-        <v>399</v>
+        <v>271</v>
       </c>
       <c r="E75" t="s">
-        <v>402</v>
+        <v>271</v>
       </c>
       <c r="G75" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="H75" t="s">
         <v>121</v>
       </c>
       <c r="I75" t="str">
         <f t="shared" si="11"/>
-        <v>COS()</v>
+        <v>COS</v>
       </c>
       <c r="J75" t="s">
         <v>121</v>
@@ -8383,7 +8311,7 @@
       </c>
       <c r="P75" t="str">
         <f t="shared" si="14"/>
-        <v>COS()</v>
+        <v>COS</v>
       </c>
       <c r="Q75" t="s">
         <v>123</v>
@@ -8396,7 +8324,7 @@
       </c>
       <c r="T75" t="str">
         <f t="shared" si="15"/>
-        <v>COS($1)$2</v>
+        <v>COS</v>
       </c>
       <c r="U75" t="s">
         <v>123</v>
@@ -8422,7 +8350,7 @@
       </c>
       <c r="AB75" t="str">
         <f t="shared" si="13"/>
-        <v>"COS()":{"prefix":"COS()","body":"COS($1)$2","description":";余弦三角函数"},</v>
+        <v>"COS":{"prefix":"COS","body":"COS","description":";余弦三角函数"},</v>
       </c>
     </row>
     <row r="76" spans="2:28" x14ac:dyDescent="0.2">
@@ -8430,23 +8358,23 @@
         <v>70</v>
       </c>
       <c r="C76" t="s">
-        <v>401</v>
+        <v>272</v>
       </c>
       <c r="D76" t="s">
-        <v>400</v>
+        <v>272</v>
       </c>
       <c r="E76" t="s">
-        <v>401</v>
+        <v>272</v>
       </c>
       <c r="G76" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="H76" t="s">
         <v>121</v>
       </c>
       <c r="I76" t="str">
         <f t="shared" si="11"/>
-        <v>SIN()</v>
+        <v>SIN</v>
       </c>
       <c r="J76" t="s">
         <v>121</v>
@@ -8468,7 +8396,7 @@
       </c>
       <c r="P76" t="str">
         <f t="shared" si="14"/>
-        <v>SIN()</v>
+        <v>SIN</v>
       </c>
       <c r="Q76" t="s">
         <v>123</v>
@@ -8481,7 +8409,7 @@
       </c>
       <c r="T76" t="str">
         <f t="shared" si="15"/>
-        <v>SIN($1)$2</v>
+        <v>SIN</v>
       </c>
       <c r="U76" t="s">
         <v>123</v>
@@ -8507,7 +8435,7 @@
       </c>
       <c r="AB76" t="str">
         <f t="shared" si="13"/>
-        <v>"SIN()":{"prefix":"SIN()","body":"SIN($1)$2","description":";正弦三角函数"},</v>
+        <v>"SIN":{"prefix":"SIN","body":"SIN","description":";正弦三角函数"},</v>
       </c>
     </row>
     <row r="77" spans="2:28" x14ac:dyDescent="0.2">
@@ -8515,13 +8443,13 @@
         <v>71</v>
       </c>
       <c r="C77" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D77" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E77" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H77" t="s">
         <v>121</v>
@@ -8597,20 +8525,20 @@
         <v>72</v>
       </c>
       <c r="C78" t="s">
-        <v>397</v>
+        <v>274</v>
       </c>
       <c r="D78" t="s">
-        <v>396</v>
+        <v>274</v>
       </c>
       <c r="E78" t="s">
-        <v>397</v>
+        <v>274</v>
       </c>
       <c r="H78" t="s">
         <v>121</v>
       </c>
       <c r="I78" t="str">
         <f t="shared" si="11"/>
-        <v>LOG()</v>
+        <v>LOG</v>
       </c>
       <c r="J78" t="s">
         <v>121</v>
@@ -8632,7 +8560,7 @@
       </c>
       <c r="P78" t="str">
         <f t="shared" si="14"/>
-        <v>LOG()</v>
+        <v>LOG</v>
       </c>
       <c r="Q78" t="s">
         <v>123</v>
@@ -8645,7 +8573,7 @@
       </c>
       <c r="T78" t="str">
         <f t="shared" si="15"/>
-        <v>LOG($1)$2</v>
+        <v>LOG</v>
       </c>
       <c r="U78" t="s">
         <v>123</v>
@@ -8671,7 +8599,7 @@
       </c>
       <c r="AB78" t="str">
         <f t="shared" si="13"/>
-        <v>"LOG()":{"prefix":"LOG()","body":"LOG($1)$2","description":";"},</v>
+        <v>"LOG":{"prefix":"LOG","body":"LOG","description":";"},</v>
       </c>
     </row>
     <row r="79" spans="2:28" x14ac:dyDescent="0.2">
@@ -8679,16 +8607,16 @@
         <v>73</v>
       </c>
       <c r="C79" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D79" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E79" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="G79" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="H79" t="s">
         <v>121</v>
@@ -8764,16 +8692,16 @@
         <v>74</v>
       </c>
       <c r="C80" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D80" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E80" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G80" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="H80" t="s">
         <v>121</v>
@@ -8849,16 +8777,16 @@
         <v>75</v>
       </c>
       <c r="C81" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D81" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E81" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="G81" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="H81" t="s">
         <v>121</v>
@@ -8934,16 +8862,16 @@
         <v>76</v>
       </c>
       <c r="C82" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D82" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E82" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="G82" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="H82" t="s">
         <v>121</v>
@@ -9019,16 +8947,16 @@
         <v>77</v>
       </c>
       <c r="C83" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="D83" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E83" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="G83" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="H83" t="s">
         <v>121</v>
@@ -9104,16 +9032,16 @@
         <v>78</v>
       </c>
       <c r="C84" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D84" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="E84" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="G84" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="H84" t="s">
         <v>121</v>
@@ -9189,16 +9117,16 @@
         <v>79</v>
       </c>
       <c r="C85" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D85" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E85" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G85" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="H85" t="s">
         <v>121</v>
@@ -9274,13 +9202,13 @@
         <v>80</v>
       </c>
       <c r="C86" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D86" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="E86" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="H86" t="s">
         <v>121</v>
@@ -9356,13 +9284,13 @@
         <v>81</v>
       </c>
       <c r="C87" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D87" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="E87" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="H87" t="s">
         <v>121</v>
@@ -9438,16 +9366,16 @@
         <v>82</v>
       </c>
       <c r="C88" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D88" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E88" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="G88" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H88" t="s">
         <v>121</v>
@@ -9523,16 +9451,16 @@
         <v>83</v>
       </c>
       <c r="C89" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D89" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="E89" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="G89" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H89" t="s">
         <v>121</v>
@@ -9608,16 +9536,16 @@
         <v>84</v>
       </c>
       <c r="C90" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="D90" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="E90" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="G90" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="H90" t="s">
         <v>121</v>
@@ -9693,16 +9621,16 @@
         <v>85</v>
       </c>
       <c r="C91" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D91" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="E91" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="G91" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="H91" t="s">
         <v>121</v>
@@ -9778,16 +9706,16 @@
         <v>86</v>
       </c>
       <c r="C92" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D92" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E92" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="G92" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="H92" t="s">
         <v>121</v>
@@ -9863,16 +9791,16 @@
         <v>87</v>
       </c>
       <c r="C93" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D93" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="E93" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="G93" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H93" t="s">
         <v>121</v>
@@ -9948,16 +9876,16 @@
         <v>88</v>
       </c>
       <c r="C94" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="D94" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E94" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="G94" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="H94" t="s">
         <v>121</v>
@@ -10033,13 +9961,13 @@
         <v>89</v>
       </c>
       <c r="C95" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D95" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="E95" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="H95" t="s">
         <v>121</v>
@@ -10115,16 +10043,16 @@
         <v>90</v>
       </c>
       <c r="C96" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D96" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E96" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="G96" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="H96" t="s">
         <v>121</v>
@@ -10200,13 +10128,13 @@
         <v>91</v>
       </c>
       <c r="C97" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D97" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="E97" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="H97" t="s">
         <v>121</v>
@@ -10282,13 +10210,13 @@
         <v>92</v>
       </c>
       <c r="C98" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D98" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="E98" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="H98" t="s">
         <v>121</v>
@@ -10364,16 +10292,16 @@
         <v>93</v>
       </c>
       <c r="C99" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D99" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E99" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="G99" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="H99" t="s">
         <v>121</v>
@@ -10449,16 +10377,16 @@
         <v>94</v>
       </c>
       <c r="C100" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D100" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="E100" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="G100" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="H100" t="s">
         <v>121</v>
@@ -10534,16 +10462,16 @@
         <v>95</v>
       </c>
       <c r="C101" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D101" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="E101" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="G101" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="H101" t="s">
         <v>121</v>
@@ -10619,16 +10547,16 @@
         <v>96</v>
       </c>
       <c r="C102" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D102" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="E102" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="G102" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="H102" t="s">
         <v>121</v>
@@ -10704,16 +10632,16 @@
         <v>97</v>
       </c>
       <c r="C103" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D103" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E103" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="G103" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="H103" t="s">
         <v>121</v>
@@ -10789,13 +10717,13 @@
         <v>98</v>
       </c>
       <c r="C104" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D104" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E104" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="H104" t="s">
         <v>121</v>
@@ -10871,13 +10799,13 @@
         <v>99</v>
       </c>
       <c r="C105" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D105" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E105" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="H105" t="s">
         <v>121</v>
@@ -10953,16 +10881,16 @@
         <v>100</v>
       </c>
       <c r="C106" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D106" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="E106" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="G106" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="H106" t="s">
         <v>121</v>
@@ -11038,13 +10966,13 @@
         <v>101</v>
       </c>
       <c r="C107" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D107" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E107" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="H107" t="s">
         <v>121</v>
@@ -11120,13 +11048,13 @@
         <v>102</v>
       </c>
       <c r="C108" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D108" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E108" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="H108" t="s">
         <v>121</v>
@@ -11202,16 +11130,16 @@
         <v>103</v>
       </c>
       <c r="C109" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D109" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="E109" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="G109" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="H109" t="s">
         <v>121</v>
@@ -11287,16 +11215,16 @@
         <v>104</v>
       </c>
       <c r="C110" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D110" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="E110" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G110" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="H110" t="s">
         <v>121</v>
@@ -11350,7 +11278,7 @@
         <v>124</v>
       </c>
       <c r="X110" t="str">
-        <f t="shared" ref="X110:X112" si="19">F110&amp;";"&amp;G110</f>
+        <f t="shared" ref="X110:X111" si="19">F110&amp;";"&amp;G110</f>
         <v>;将此参数的值固定为初始值</v>
       </c>
       <c r="Y110" t="s">
@@ -11372,19 +11300,19 @@
         <v>105</v>
       </c>
       <c r="C111" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D111" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E111" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="F111" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="G111" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="H111" t="s">
         <v>121</v>
@@ -11453,358 +11381,6 @@
       <c r="AB111" t="str">
         <f t="shared" si="20"/>
         <v>"Specify ADVAN and TRANS in this statement":{"prefix":"$SUBROUTINES","body":"\\$SUBROUTINES","description":"Specify ADVAN and TRANS in this statement;在此语句中指定ADVAN和TRANS"},</v>
-      </c>
-    </row>
-    <row r="112" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B112">
-        <v>106</v>
-      </c>
-      <c r="C112" t="s">
-        <v>390</v>
-      </c>
-      <c r="D112" t="s">
-        <v>387</v>
-      </c>
-      <c r="E112" t="s">
-        <v>387</v>
-      </c>
-      <c r="F112" t="s">
-        <v>387</v>
-      </c>
-      <c r="G112" t="s">
-        <v>395</v>
-      </c>
-      <c r="H112" t="s">
-        <v>121</v>
-      </c>
-      <c r="I112" t="str">
-        <f t="shared" ref="I112:I114" si="21">E112</f>
-        <v>IGNORE</v>
-      </c>
-      <c r="J112" t="s">
-        <v>121</v>
-      </c>
-      <c r="K112" t="s">
-        <v>118</v>
-      </c>
-      <c r="L112" t="s">
-        <v>122</v>
-      </c>
-      <c r="M112" t="s">
-        <v>121</v>
-      </c>
-      <c r="N112" t="s">
-        <v>132</v>
-      </c>
-      <c r="O112" t="s">
-        <v>124</v>
-      </c>
-      <c r="P112" t="str">
-        <f t="shared" ref="P112:P114" si="22">C112</f>
-        <v>IGNORE</v>
-      </c>
-      <c r="Q112" t="s">
-        <v>123</v>
-      </c>
-      <c r="R112" t="s">
-        <v>133</v>
-      </c>
-      <c r="S112" t="s">
-        <v>124</v>
-      </c>
-      <c r="T112" t="str">
-        <f t="shared" ref="T112:T114" si="23">D112</f>
-        <v>IGNORE</v>
-      </c>
-      <c r="U112" t="s">
-        <v>123</v>
-      </c>
-      <c r="V112" t="s">
-        <v>134</v>
-      </c>
-      <c r="W112" t="s">
-        <v>124</v>
-      </c>
-      <c r="X112" t="str">
-        <f t="shared" ref="X112:X114" si="24">F112&amp;";"&amp;G112</f>
-        <v>IGNORE;定义用于筛选过滤的符号，行首为该符号的行被“剔除”</v>
-      </c>
-      <c r="Y112" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z112" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA112" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB112" t="str">
-        <f t="shared" ref="AB112:AB115" si="25">_xlfn.CONCAT(H112:AA112)</f>
-        <v>"IGNORE":{"prefix":"IGNORE","body":"IGNORE","description":"IGNORE;定义用于筛选过滤的符号，行首为该符号的行被“剔除”"},</v>
-      </c>
-    </row>
-    <row r="113" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B113">
-        <v>107</v>
-      </c>
-      <c r="C113" t="s">
-        <v>388</v>
-      </c>
-      <c r="D113" t="s">
-        <v>393</v>
-      </c>
-      <c r="E113" t="s">
-        <v>388</v>
-      </c>
-      <c r="F113" t="s">
-        <v>388</v>
-      </c>
-      <c r="G113" t="s">
-        <v>389</v>
-      </c>
-      <c r="H113" t="s">
-        <v>121</v>
-      </c>
-      <c r="I113" t="str">
-        <f t="shared" si="21"/>
-        <v>THETA()</v>
-      </c>
-      <c r="J113" t="s">
-        <v>121</v>
-      </c>
-      <c r="K113" t="s">
-        <v>118</v>
-      </c>
-      <c r="L113" t="s">
-        <v>122</v>
-      </c>
-      <c r="M113" t="s">
-        <v>121</v>
-      </c>
-      <c r="N113" t="s">
-        <v>132</v>
-      </c>
-      <c r="O113" t="s">
-        <v>124</v>
-      </c>
-      <c r="P113" t="str">
-        <f t="shared" si="22"/>
-        <v>THETA()</v>
-      </c>
-      <c r="Q113" t="s">
-        <v>123</v>
-      </c>
-      <c r="R113" t="s">
-        <v>133</v>
-      </c>
-      <c r="S113" t="s">
-        <v>124</v>
-      </c>
-      <c r="T113" t="str">
-        <f t="shared" si="23"/>
-        <v>THETA($1)$2</v>
-      </c>
-      <c r="U113" t="s">
-        <v>123</v>
-      </c>
-      <c r="V113" t="s">
-        <v>134</v>
-      </c>
-      <c r="W113" t="s">
-        <v>124</v>
-      </c>
-      <c r="X113" t="str">
-        <f t="shared" si="24"/>
-        <v>THETA();定义一个固定效应变量</v>
-      </c>
-      <c r="Y113" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z113" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA113" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB113" t="str">
-        <f t="shared" si="25"/>
-        <v>"THETA()":{"prefix":"THETA()","body":"THETA($1)$2","description":"THETA();定义一个固定效应变量"},</v>
-      </c>
-    </row>
-    <row r="114" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B114">
-        <v>108</v>
-      </c>
-      <c r="C114" t="s">
-        <v>391</v>
-      </c>
-      <c r="D114" t="s">
-        <v>394</v>
-      </c>
-      <c r="E114" t="s">
-        <v>391</v>
-      </c>
-      <c r="F114" t="s">
-        <v>391</v>
-      </c>
-      <c r="G114" t="s">
-        <v>392</v>
-      </c>
-      <c r="H114" t="s">
-        <v>121</v>
-      </c>
-      <c r="I114" t="str">
-        <f t="shared" si="21"/>
-        <v>ETA()</v>
-      </c>
-      <c r="J114" t="s">
-        <v>121</v>
-      </c>
-      <c r="K114" t="s">
-        <v>118</v>
-      </c>
-      <c r="L114" t="s">
-        <v>122</v>
-      </c>
-      <c r="M114" t="s">
-        <v>121</v>
-      </c>
-      <c r="N114" t="s">
-        <v>132</v>
-      </c>
-      <c r="O114" t="s">
-        <v>124</v>
-      </c>
-      <c r="P114" t="str">
-        <f t="shared" si="22"/>
-        <v>ETA()</v>
-      </c>
-      <c r="Q114" t="s">
-        <v>123</v>
-      </c>
-      <c r="R114" t="s">
-        <v>133</v>
-      </c>
-      <c r="S114" t="s">
-        <v>124</v>
-      </c>
-      <c r="T114" t="str">
-        <f t="shared" si="23"/>
-        <v>ETA($1)$2</v>
-      </c>
-      <c r="U114" t="s">
-        <v>123</v>
-      </c>
-      <c r="V114" t="s">
-        <v>134</v>
-      </c>
-      <c r="W114" t="s">
-        <v>124</v>
-      </c>
-      <c r="X114" t="str">
-        <f t="shared" si="24"/>
-        <v>ETA();定义一个个体间变异随机变量</v>
-      </c>
-      <c r="Y114" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z114" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA114" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB114" t="str">
-        <f t="shared" si="25"/>
-        <v>"ETA()":{"prefix":"ETA()","body":"ETA($1)$2","description":"ETA();定义一个个体间变异随机变量"},</v>
-      </c>
-    </row>
-    <row r="115" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B115">
-        <v>109</v>
-      </c>
-      <c r="C115" t="s">
-        <v>404</v>
-      </c>
-      <c r="D115" t="s">
-        <v>405</v>
-      </c>
-      <c r="E115" t="s">
-        <v>404</v>
-      </c>
-      <c r="F115" t="s">
-        <v>404</v>
-      </c>
-      <c r="G115" t="s">
-        <v>406</v>
-      </c>
-      <c r="H115" t="s">
-        <v>121</v>
-      </c>
-      <c r="I115" t="str">
-        <f t="shared" ref="I115" si="26">E115</f>
-        <v>ERR()</v>
-      </c>
-      <c r="J115" t="s">
-        <v>121</v>
-      </c>
-      <c r="K115" t="s">
-        <v>118</v>
-      </c>
-      <c r="L115" t="s">
-        <v>122</v>
-      </c>
-      <c r="M115" t="s">
-        <v>121</v>
-      </c>
-      <c r="N115" t="s">
-        <v>132</v>
-      </c>
-      <c r="O115" t="s">
-        <v>124</v>
-      </c>
-      <c r="P115" t="str">
-        <f t="shared" ref="P115" si="27">C115</f>
-        <v>ERR()</v>
-      </c>
-      <c r="Q115" t="s">
-        <v>123</v>
-      </c>
-      <c r="R115" t="s">
-        <v>133</v>
-      </c>
-      <c r="S115" t="s">
-        <v>124</v>
-      </c>
-      <c r="T115" t="str">
-        <f t="shared" ref="T115" si="28">D115</f>
-        <v>ERR($1)$2</v>
-      </c>
-      <c r="U115" t="s">
-        <v>123</v>
-      </c>
-      <c r="V115" t="s">
-        <v>134</v>
-      </c>
-      <c r="W115" t="s">
-        <v>124</v>
-      </c>
-      <c r="X115" t="str">
-        <f t="shared" ref="X115" si="29">F115&amp;";"&amp;G115</f>
-        <v>ERR();定义一个个体内变异随机变量</v>
-      </c>
-      <c r="Y115" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z115" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA115" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB115" t="str">
-        <f t="shared" si="25"/>
-        <v>"ERR()":{"prefix":"ERR()","body":"ERR($1)$2","description":"ERR();定义一个个体内变异随机变量"},</v>
       </c>
     </row>
   </sheetData>

--- a/语法高亮.xlsx
+++ b/语法高亮.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\s0521_git\nonmem_cn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821ED333-28B2-4117-8E3B-160024898E5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAB6CAE-21A5-4BE6-8AB9-8EFBE9A7BEE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="2415" windowWidth="20790" windowHeight="12630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8310" yWindow="2025" windowWidth="20790" windowHeight="12630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Highlight-高亮" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2341" uniqueCount="404">
   <si>
     <t>值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1456,11 +1456,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>INTERACTION|INTER|NOABORT|NOAPPEND|FILE|FIRSTONLY|ONEHEADER|NOPRINT|FIX|FIXED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INTERACTION INTER NOABORT NOAPPEND FILE FIRSTONLY ONEHEADER NOPRINT FIX FIXED</t>
+    <t>IGNORE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IGNORE</t>
+  </si>
+  <si>
+    <t>定义用于筛选过滤的符号，行首为该符号的行被“剔除”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THETA()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THETA($1)$2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义一个固定效应变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETA()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETA($1)$2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义一个个体间变异随机变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERR()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERR($1)$2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义一个个体内变异随机变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTERACTION INTER NOABORT NOAPPEND FILE FIRSTONLY ONEHEADER NOPRINT FIX FIXED IGNORE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTERACTION|INTER|NOABORT|NOAPPEND|FILE|FIRSTONLY|ONEHEADER|NOPRINT|FIX|FIXED|IGNORE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1803,7 +1850,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2054,10 +2101,10 @@
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="F14" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -2091,10 +2138,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462C55DB-F358-4A5D-A75B-9313D984AF51}">
-  <dimension ref="A1:AB111"/>
+  <dimension ref="A1:AB115"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="A8:F9"/>
+    <sheetView topLeftCell="AB6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB115" sqref="AB7:AB115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10669,7 +10716,7 @@
         <v>124</v>
       </c>
       <c r="P103" t="str">
-        <f t="shared" ref="P103:P111" si="16">C103</f>
+        <f t="shared" ref="P103:P115" si="16">C103</f>
         <v>EVID</v>
       </c>
       <c r="Q103" t="s">
@@ -10682,7 +10729,7 @@
         <v>124</v>
       </c>
       <c r="T103" t="str">
-        <f t="shared" ref="T103:T111" si="17">D103</f>
+        <f t="shared" ref="T103:T115" si="17">D103</f>
         <v>EVID</v>
       </c>
       <c r="U103" t="s">
@@ -11230,7 +11277,7 @@
         <v>121</v>
       </c>
       <c r="I110" t="str">
-        <f t="shared" ref="I110:I111" si="18">E110</f>
+        <f t="shared" ref="I110:I115" si="18">E110</f>
         <v>FIX</v>
       </c>
       <c r="J110" t="s">
@@ -11278,7 +11325,7 @@
         <v>124</v>
       </c>
       <c r="X110" t="str">
-        <f t="shared" ref="X110:X111" si="19">F110&amp;";"&amp;G110</f>
+        <f t="shared" ref="X110:X115" si="19">F110&amp;";"&amp;G110</f>
         <v>;将此参数的值固定为初始值</v>
       </c>
       <c r="Y110" t="s">
@@ -11291,7 +11338,7 @@
         <v>119</v>
       </c>
       <c r="AB110" t="str">
-        <f t="shared" ref="AB110:AB111" si="20">_xlfn.CONCAT(H110:AA110)</f>
+        <f t="shared" ref="AB110:AB115" si="20">_xlfn.CONCAT(H110:AA110)</f>
         <v>"FIX":{"prefix":"FIX","body":"FIX","description":";将此参数的值固定为初始值"},</v>
       </c>
     </row>
@@ -11381,6 +11428,358 @@
       <c r="AB111" t="str">
         <f t="shared" si="20"/>
         <v>"Specify ADVAN and TRANS in this statement":{"prefix":"$SUBROUTINES","body":"\\$SUBROUTINES","description":"Specify ADVAN and TRANS in this statement;在此语句中指定ADVAN和TRANS"},</v>
+      </c>
+    </row>
+    <row r="112" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B112">
+        <v>106</v>
+      </c>
+      <c r="C112" t="s">
+        <v>390</v>
+      </c>
+      <c r="D112" t="s">
+        <v>391</v>
+      </c>
+      <c r="E112" t="s">
+        <v>391</v>
+      </c>
+      <c r="F112" t="s">
+        <v>391</v>
+      </c>
+      <c r="G112" t="s">
+        <v>392</v>
+      </c>
+      <c r="H112" t="s">
+        <v>121</v>
+      </c>
+      <c r="I112" t="str">
+        <f t="shared" si="18"/>
+        <v>IGNORE</v>
+      </c>
+      <c r="J112" t="s">
+        <v>121</v>
+      </c>
+      <c r="K112" t="s">
+        <v>118</v>
+      </c>
+      <c r="L112" t="s">
+        <v>122</v>
+      </c>
+      <c r="M112" t="s">
+        <v>121</v>
+      </c>
+      <c r="N112" t="s">
+        <v>132</v>
+      </c>
+      <c r="O112" t="s">
+        <v>124</v>
+      </c>
+      <c r="P112" t="str">
+        <f t="shared" si="16"/>
+        <v>IGNORE</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>123</v>
+      </c>
+      <c r="R112" t="s">
+        <v>133</v>
+      </c>
+      <c r="S112" t="s">
+        <v>124</v>
+      </c>
+      <c r="T112" t="str">
+        <f t="shared" si="17"/>
+        <v>IGNORE</v>
+      </c>
+      <c r="U112" t="s">
+        <v>123</v>
+      </c>
+      <c r="V112" t="s">
+        <v>134</v>
+      </c>
+      <c r="W112" t="s">
+        <v>124</v>
+      </c>
+      <c r="X112" t="str">
+        <f t="shared" si="19"/>
+        <v>IGNORE;定义用于筛选过滤的符号，行首为该符号的行被“剔除”</v>
+      </c>
+      <c r="Y112" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z112" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA112" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB112" t="str">
+        <f t="shared" si="20"/>
+        <v>"IGNORE":{"prefix":"IGNORE","body":"IGNORE","description":"IGNORE;定义用于筛选过滤的符号，行首为该符号的行被“剔除”"},</v>
+      </c>
+    </row>
+    <row r="113" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B113">
+        <v>107</v>
+      </c>
+      <c r="C113" t="s">
+        <v>393</v>
+      </c>
+      <c r="D113" t="s">
+        <v>394</v>
+      </c>
+      <c r="E113" t="s">
+        <v>393</v>
+      </c>
+      <c r="F113" t="s">
+        <v>393</v>
+      </c>
+      <c r="G113" t="s">
+        <v>395</v>
+      </c>
+      <c r="H113" t="s">
+        <v>121</v>
+      </c>
+      <c r="I113" t="str">
+        <f t="shared" si="18"/>
+        <v>THETA()</v>
+      </c>
+      <c r="J113" t="s">
+        <v>121</v>
+      </c>
+      <c r="K113" t="s">
+        <v>118</v>
+      </c>
+      <c r="L113" t="s">
+        <v>122</v>
+      </c>
+      <c r="M113" t="s">
+        <v>121</v>
+      </c>
+      <c r="N113" t="s">
+        <v>132</v>
+      </c>
+      <c r="O113" t="s">
+        <v>124</v>
+      </c>
+      <c r="P113" t="str">
+        <f t="shared" si="16"/>
+        <v>THETA()</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>123</v>
+      </c>
+      <c r="R113" t="s">
+        <v>133</v>
+      </c>
+      <c r="S113" t="s">
+        <v>124</v>
+      </c>
+      <c r="T113" t="str">
+        <f t="shared" si="17"/>
+        <v>THETA($1)$2</v>
+      </c>
+      <c r="U113" t="s">
+        <v>123</v>
+      </c>
+      <c r="V113" t="s">
+        <v>134</v>
+      </c>
+      <c r="W113" t="s">
+        <v>124</v>
+      </c>
+      <c r="X113" t="str">
+        <f t="shared" si="19"/>
+        <v>THETA();定义一个固定效应变量</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z113" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA113" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB113" t="str">
+        <f t="shared" si="20"/>
+        <v>"THETA()":{"prefix":"THETA()","body":"THETA($1)$2","description":"THETA();定义一个固定效应变量"},</v>
+      </c>
+    </row>
+    <row r="114" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B114">
+        <v>108</v>
+      </c>
+      <c r="C114" t="s">
+        <v>396</v>
+      </c>
+      <c r="D114" t="s">
+        <v>397</v>
+      </c>
+      <c r="E114" t="s">
+        <v>396</v>
+      </c>
+      <c r="F114" t="s">
+        <v>396</v>
+      </c>
+      <c r="G114" t="s">
+        <v>398</v>
+      </c>
+      <c r="H114" t="s">
+        <v>121</v>
+      </c>
+      <c r="I114" t="str">
+        <f t="shared" si="18"/>
+        <v>ETA()</v>
+      </c>
+      <c r="J114" t="s">
+        <v>121</v>
+      </c>
+      <c r="K114" t="s">
+        <v>118</v>
+      </c>
+      <c r="L114" t="s">
+        <v>122</v>
+      </c>
+      <c r="M114" t="s">
+        <v>121</v>
+      </c>
+      <c r="N114" t="s">
+        <v>132</v>
+      </c>
+      <c r="O114" t="s">
+        <v>124</v>
+      </c>
+      <c r="P114" t="str">
+        <f t="shared" si="16"/>
+        <v>ETA()</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>123</v>
+      </c>
+      <c r="R114" t="s">
+        <v>133</v>
+      </c>
+      <c r="S114" t="s">
+        <v>124</v>
+      </c>
+      <c r="T114" t="str">
+        <f t="shared" si="17"/>
+        <v>ETA($1)$2</v>
+      </c>
+      <c r="U114" t="s">
+        <v>123</v>
+      </c>
+      <c r="V114" t="s">
+        <v>134</v>
+      </c>
+      <c r="W114" t="s">
+        <v>124</v>
+      </c>
+      <c r="X114" t="str">
+        <f t="shared" si="19"/>
+        <v>ETA();定义一个个体间变异随机变量</v>
+      </c>
+      <c r="Y114" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z114" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA114" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB114" t="str">
+        <f t="shared" si="20"/>
+        <v>"ETA()":{"prefix":"ETA()","body":"ETA($1)$2","description":"ETA();定义一个个体间变异随机变量"},</v>
+      </c>
+    </row>
+    <row r="115" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B115">
+        <v>109</v>
+      </c>
+      <c r="C115" t="s">
+        <v>399</v>
+      </c>
+      <c r="D115" t="s">
+        <v>400</v>
+      </c>
+      <c r="E115" t="s">
+        <v>399</v>
+      </c>
+      <c r="F115" t="s">
+        <v>399</v>
+      </c>
+      <c r="G115" t="s">
+        <v>401</v>
+      </c>
+      <c r="H115" t="s">
+        <v>121</v>
+      </c>
+      <c r="I115" t="str">
+        <f t="shared" si="18"/>
+        <v>ERR()</v>
+      </c>
+      <c r="J115" t="s">
+        <v>121</v>
+      </c>
+      <c r="K115" t="s">
+        <v>118</v>
+      </c>
+      <c r="L115" t="s">
+        <v>122</v>
+      </c>
+      <c r="M115" t="s">
+        <v>121</v>
+      </c>
+      <c r="N115" t="s">
+        <v>132</v>
+      </c>
+      <c r="O115" t="s">
+        <v>124</v>
+      </c>
+      <c r="P115" t="str">
+        <f t="shared" si="16"/>
+        <v>ERR()</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>123</v>
+      </c>
+      <c r="R115" t="s">
+        <v>133</v>
+      </c>
+      <c r="S115" t="s">
+        <v>124</v>
+      </c>
+      <c r="T115" t="str">
+        <f t="shared" si="17"/>
+        <v>ERR($1)$2</v>
+      </c>
+      <c r="U115" t="s">
+        <v>123</v>
+      </c>
+      <c r="V115" t="s">
+        <v>134</v>
+      </c>
+      <c r="W115" t="s">
+        <v>124</v>
+      </c>
+      <c r="X115" t="str">
+        <f t="shared" si="19"/>
+        <v>ERR();定义一个个体内变异随机变量</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z115" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA115" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB115" t="str">
+        <f t="shared" si="20"/>
+        <v>"ERR()":{"prefix":"ERR()","body":"ERR($1)$2","description":"ERR();定义一个个体内变异随机变量"},</v>
       </c>
     </row>
   </sheetData>
